--- a/clustering/output/Cluster_summary_0924.xlsx
+++ b/clustering/output/Cluster_summary_0924.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb500886\OneDrive - WBG\7_Housing\survey_all\Housing_git\clustering\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="8_{15340CCD-35C3-4AC4-881C-68A321115706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9842AB14-B5CE-4DE7-AF64-F4BB49A613D3}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="8_{15340CCD-35C3-4AC4-881C-68A321115706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E6BF006-79F1-43BB-9D39-61896955F573}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{F7274712-09FB-4A5E-A38E-5CE21C2BB8C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{F7274712-09FB-4A5E-A38E-5CE21C2BB8C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cluster_urban_0923" sheetId="1" state="hidden" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="90">
   <si>
     <t>Permanent Structure</t>
   </si>
@@ -216,18 +216,6 @@
     <t>cluster_name</t>
   </si>
   <si>
-    <t>Low quality housing structure with limited access to improved service</t>
-  </si>
-  <si>
-    <t>High quality housing structure with access to improved service</t>
-  </si>
-  <si>
-    <t>Small + Good Wat</t>
-  </si>
-  <si>
-    <t>Big + Med Water</t>
-  </si>
-  <si>
     <t>Dendrogram</t>
   </si>
   <si>
@@ -289,13 +277,61 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big house with limited acess to water service. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small house with limited access to water service. </t>
+  </si>
+  <si>
+    <t>High quality big house with access to improved water and sanitation service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small house without separate kitchen, limited access to  water service. </t>
+  </si>
+  <si>
+    <t>Small house without separate kitchen, limited access to water or sanitation services.</t>
+  </si>
+  <si>
+    <t>High quality house with access to improved water and sanitation service.</t>
+  </si>
+  <si>
+    <t>k-modes presentation version</t>
+  </si>
+  <si>
+    <t>Cluster name</t>
+  </si>
+  <si>
+    <t>Share of Urban Households (%)</t>
+  </si>
+  <si>
+    <t>Roof Material</t>
+  </si>
+  <si>
+    <t>With Separate Kitchen</t>
+  </si>
+  <si>
+    <t>Number of Room</t>
+  </si>
+  <si>
+    <t>Sanitation Facility</t>
+  </si>
+  <si>
+    <t>Drinking Water Source</t>
+  </si>
+  <si>
+    <t>Median Rent (Rs.)</t>
+  </si>
+  <si>
+    <t>Median Consumption Expenditure (Rs.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,12 +352,6 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -407,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2235,6 +2265,42 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF263A57-7EA1-4F5A-9FF6-042744F0333F}" name="Table2" displayName="Table2" ref="Q2:Y8" totalsRowShown="0">
+  <autoFilter ref="Q2:Y8" xr:uid="{1A2EE8C7-854C-476B-8557-2A08F5E0EAA8}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{16977038-0EBD-4B63-B453-22CAA152BCA9}" name="Cluster name">
+      <calculatedColumnFormula>Table6[[#This Row],[cluster_name]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{C7530A50-F578-4FB3-B601-C1481B831D1A}" name="Share of Urban Households (%)">
+      <calculatedColumnFormula>Table6[[#This Row],[ratio]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{F0EA73DF-AE89-4FDB-8F07-B775768D504F}" name="Roof Material">
+      <calculatedColumnFormula>Table6[[#This Row],[in_roof]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{929AEF17-CA71-411B-B1C1-95008A6E6C9B}" name="With Separate Kitchen">
+      <calculatedColumnFormula>Table6[[#This Row],[in_sep_kitch]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{52C5C4B0-D598-47EA-8702-C0F0F7BB3B5A}" name="Number of Room">
+      <calculatedColumnFormula>Table6[[#This Row],[in_room_grp]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{8EA3F0E2-3D6A-498E-A070-9B160E4DE10E}" name="Drinking Water Source">
+      <calculatedColumnFormula>Table6[[#This Row],[h20]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{6A47B14C-5FA8-42DD-9EE7-1B11459A7D76}" name="Sanitation Facility">
+      <calculatedColumnFormula>Table6[[#This Row],[san]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{1A44FD23-A698-45A2-8162-C2D0D55399F4}" name="Median Rent (Rs.)">
+      <calculatedColumnFormula>Table6[[#This Row],[Rent (Rs.)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2729187B-6575-4C02-9B35-ACB9D32AB935}" name="Median Consumption Expenditure (Rs.)">
+      <calculatedColumnFormula>Table6[[#This Row],[Cons (Rs.)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{55EE0150-859F-4304-8CA5-B0A77822BA4E}" name="Table5" displayName="Table5" ref="A14:M20" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A14:M20" xr:uid="{5345BEE0-5063-46F6-9B16-26CF03847E4A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:M20">
@@ -2259,7 +2325,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5909081A-2113-4698-B308-E79B00706A23}" name="Table8" displayName="Table8" ref="A2:M8" totalsRowShown="0">
   <autoFilter ref="A2:M8" xr:uid="{C6D8BC9C-4EE6-498F-8C82-F9A175312A5D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M8">
@@ -2595,29 +2661,29 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2661,7 +2727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2705,7 +2771,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2749,7 +2815,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -2793,7 +2859,7 @@
         <v>157.13999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2837,7 +2903,7 @@
         <v>128.33000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2881,7 +2947,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2925,12 +2991,12 @@
         <v>158.33000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2974,7 +3040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3018,7 +3084,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3062,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3106,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -3150,7 +3216,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3194,7 +3260,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3238,12 +3304,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3260,7 +3326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3281,7 +3347,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3302,7 +3368,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -3323,7 +3389,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3344,7 +3410,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -3365,7 +3431,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -3386,16 +3452,16 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
     </row>
   </sheetData>
@@ -3412,29 +3478,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DDEC70-3F57-4008-AAD6-8842C7ABED87}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="8" width="10.6328125" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" customWidth="1"/>
+    <col min="3" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="33.5703125" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" customWidth="1"/>
+    <col min="23" max="23" width="20.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" customWidth="1"/>
+    <col min="25" max="25" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3480,8 +3557,35 @@
       <c r="O2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -3489,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D3">
         <v>9.3000000000000007</v>
@@ -3527,14 +3631,53 @@
       <c r="O3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q3" t="str">
+        <f>Table6[[#This Row],[cluster_name]]</f>
+        <v>Small house without separate kitchen, limited access to water or sanitation services.</v>
+      </c>
+      <c r="R3">
+        <f>Table6[[#This Row],[ratio]]</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S3" t="str">
+        <f>Table6[[#This Row],[in_roof]]</f>
+        <v>Permanent</v>
+      </c>
+      <c r="T3" t="str">
+        <f>Table6[[#This Row],[in_sep_kitch]]</f>
+        <v>No</v>
+      </c>
+      <c r="U3">
+        <f>Table6[[#This Row],[in_room_grp]]</f>
+        <v>1</v>
+      </c>
+      <c r="V3" t="str">
+        <f>Table6[[#This Row],[h20]]</f>
+        <v>Pump out</v>
+      </c>
+      <c r="W3" t="str">
+        <f>Table6[[#This Row],[san]]</f>
+        <v>Flush</v>
+      </c>
+      <c r="X3">
+        <f>Table6[[#This Row],[Rent (Rs.)]]</f>
+        <v>1200</v>
+      </c>
+      <c r="Y3">
+        <f>Table6[[#This Row],[Cons (Rs.)]]</f>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>6</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
       <c r="D4">
         <v>6.35</v>
       </c>
@@ -3571,8 +3714,44 @@
       <c r="O4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q4" t="str">
+        <f>Table6[[#This Row],[cluster_name]]</f>
+        <v xml:space="preserve">Small house without separate kitchen, limited access to  water service. </v>
+      </c>
+      <c r="R4">
+        <f>Table6[[#This Row],[ratio]]</f>
+        <v>6.35</v>
+      </c>
+      <c r="S4" t="str">
+        <f>Table6[[#This Row],[in_roof]]</f>
+        <v>Metal</v>
+      </c>
+      <c r="T4" t="str">
+        <f>Table6[[#This Row],[in_sep_kitch]]</f>
+        <v>No</v>
+      </c>
+      <c r="U4">
+        <f>Table6[[#This Row],[in_room_grp]]</f>
+        <v>2</v>
+      </c>
+      <c r="V4" t="str">
+        <f>Table6[[#This Row],[h20]]</f>
+        <v>Yard</v>
+      </c>
+      <c r="W4" t="str">
+        <f>Table6[[#This Row],[san]]</f>
+        <v>Flush</v>
+      </c>
+      <c r="X4">
+        <f>Table6[[#This Row],[Rent (Rs.)]]</f>
+        <v>1500</v>
+      </c>
+      <c r="Y4">
+        <f>Table6[[#This Row],[Cons (Rs.)]]</f>
+        <v>8057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3580,7 +3759,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>14.32</v>
@@ -3618,8 +3797,44 @@
       <c r="O5">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q5" t="str">
+        <f>Table6[[#This Row],[cluster_name]]</f>
+        <v xml:space="preserve">Small house with limited access to water service. </v>
+      </c>
+      <c r="R5">
+        <f>Table6[[#This Row],[ratio]]</f>
+        <v>14.32</v>
+      </c>
+      <c r="S5" t="str">
+        <f>Table6[[#This Row],[in_roof]]</f>
+        <v>Permanent</v>
+      </c>
+      <c r="T5" t="str">
+        <f>Table6[[#This Row],[in_sep_kitch]]</f>
+        <v>Yes</v>
+      </c>
+      <c r="U5">
+        <f>Table6[[#This Row],[in_room_grp]]</f>
+        <v>3</v>
+      </c>
+      <c r="V5" t="str">
+        <f>Table6[[#This Row],[h20]]</f>
+        <v>Piped in</v>
+      </c>
+      <c r="W5" t="str">
+        <f>Table6[[#This Row],[san]]</f>
+        <v>Flush</v>
+      </c>
+      <c r="X5">
+        <f>Table6[[#This Row],[Rent (Rs.)]]</f>
+        <v>2112.5</v>
+      </c>
+      <c r="Y5">
+        <f>Table6[[#This Row],[Cons (Rs.)]]</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3627,7 +3842,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>32.840000000000003</v>
@@ -3665,8 +3880,44 @@
       <c r="O6">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q6" t="str">
+        <f>Table6[[#This Row],[cluster_name]]</f>
+        <v xml:space="preserve">Big house with limited acess to water service. </v>
+      </c>
+      <c r="R6">
+        <f>Table6[[#This Row],[ratio]]</f>
+        <v>32.840000000000003</v>
+      </c>
+      <c r="S6" t="str">
+        <f>Table6[[#This Row],[in_roof]]</f>
+        <v>Permanent</v>
+      </c>
+      <c r="T6" t="str">
+        <f>Table6[[#This Row],[in_sep_kitch]]</f>
+        <v>Yes</v>
+      </c>
+      <c r="U6">
+        <f>Table6[[#This Row],[in_room_grp]]</f>
+        <v>5</v>
+      </c>
+      <c r="V6" t="str">
+        <f>Table6[[#This Row],[h20]]</f>
+        <v>Pump in</v>
+      </c>
+      <c r="W6" t="str">
+        <f>Table6[[#This Row],[san]]</f>
+        <v>Flush</v>
+      </c>
+      <c r="X6">
+        <f>Table6[[#This Row],[Rent (Rs.)]]</f>
+        <v>3000</v>
+      </c>
+      <c r="Y6">
+        <f>Table6[[#This Row],[Cons (Rs.)]]</f>
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -3674,7 +3925,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <v>26.82</v>
@@ -3712,15 +3963,53 @@
       <c r="O7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q7" t="str">
+        <f>Table6[[#This Row],[cluster_name]]</f>
+        <v>High quality house with access to improved water and sanitation service.</v>
+      </c>
+      <c r="R7">
+        <f>Table6[[#This Row],[ratio]]</f>
+        <v>26.82</v>
+      </c>
+      <c r="S7" t="str">
+        <f>Table6[[#This Row],[in_roof]]</f>
+        <v>Permanent</v>
+      </c>
+      <c r="T7" t="str">
+        <f>Table6[[#This Row],[in_sep_kitch]]</f>
+        <v>Yes</v>
+      </c>
+      <c r="U7">
+        <f>Table6[[#This Row],[in_room_grp]]</f>
+        <v>4</v>
+      </c>
+      <c r="V7" t="str">
+        <f>Table6[[#This Row],[h20]]</f>
+        <v>Piped in</v>
+      </c>
+      <c r="W7" t="str">
+        <f>Table6[[#This Row],[san]]</f>
+        <v>Flush</v>
+      </c>
+      <c r="X7">
+        <f>Table6[[#This Row],[Rent (Rs.)]]</f>
+        <v>3000</v>
+      </c>
+      <c r="Y7">
+        <f>Table6[[#This Row],[Cons (Rs.)]]</f>
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
       <c r="D8">
         <v>10.38</v>
       </c>
@@ -3757,14 +4046,50 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q8" t="str">
+        <f>Table6[[#This Row],[cluster_name]]</f>
+        <v>High quality big house with access to improved water and sanitation service.</v>
+      </c>
+      <c r="R8">
+        <f>Table6[[#This Row],[ratio]]</f>
+        <v>10.38</v>
+      </c>
+      <c r="S8" t="str">
+        <f>Table6[[#This Row],[in_roof]]</f>
+        <v>Permanent</v>
+      </c>
+      <c r="T8" t="str">
+        <f>Table6[[#This Row],[in_sep_kitch]]</f>
+        <v>Yes</v>
+      </c>
+      <c r="U8" t="str">
+        <f>Table6[[#This Row],[in_room_grp]]</f>
+        <v>&gt;6</v>
+      </c>
+      <c r="V8" t="str">
+        <f>Table6[[#This Row],[h20]]</f>
+        <v>Piped in</v>
+      </c>
+      <c r="W8" t="str">
+        <f>Table6[[#This Row],[san]]</f>
+        <v>Flush</v>
+      </c>
+      <c r="X8">
+        <f>Table6[[#This Row],[Rent (Rs.)]]</f>
+        <v>5000</v>
+      </c>
+      <c r="Y8">
+        <f>Table6[[#This Row],[Cons (Rs.)]]</f>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -3811,7 +4136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -3856,7 +4181,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>5</v>
       </c>
@@ -3901,7 +4226,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -3946,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -3991,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -4036,7 +4361,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -4081,17 +4406,17 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
@@ -4117,7 +4442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>1</v>
       </c>
@@ -4143,7 +4468,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>2</v>
       </c>
@@ -4169,7 +4494,7 @@
         <v>6.3500000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>3</v>
       </c>
@@ -4195,7 +4520,7 @@
         <v>0.14319999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>4</v>
       </c>
@@ -4221,7 +4546,7 @@
         <v>0.32840000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>5</v>
       </c>
@@ -4247,7 +4572,7 @@
         <v>0.26819999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>6</v>
       </c>
@@ -4273,7 +4598,7 @@
         <v>0.1038</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>51</v>
       </c>
@@ -4338,9 +4663,10 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4377,13 +4703,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992B96D3-D8E9-48CC-AC2C-0272781BE39D}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4406,19 +4732,19 @@
         <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -4430,7 +4756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -4438,7 +4764,7 @@
         <v>3.52</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -4450,7 +4776,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I2">
         <v>800</v>
@@ -4471,7 +4797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4512,7 +4838,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -4553,7 +4879,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4594,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4635,7 +4961,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4676,9 +5002,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4706,7 +5032,7 @@
         <v>33518</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>1</v>
       </c>
@@ -4729,14 +5055,14 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I12">
         <f>SUM(B12:G17)</f>
         <v>43072</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2</v>
       </c>
@@ -4759,14 +5085,14 @@
         <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I13" s="9">
         <f>I11/I12</f>
         <v>0.77818536404160477</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>3</v>
       </c>
@@ -4789,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>4</v>
       </c>
@@ -4812,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>5</v>
       </c>
@@ -4835,7 +5161,7 @@
         <v>6226</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>6</v>
       </c>
@@ -4867,31 +5193,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E550F9-EFBC-469B-8C0D-D51B10EB57CC}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" customWidth="1"/>
-    <col min="8" max="8" width="18.36328125" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" customWidth="1"/>
-    <col min="12" max="12" width="10.6328125" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4932,7 +5256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -4955,7 +5279,7 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I3">
         <v>500</v>
@@ -4973,7 +5297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4996,7 +5320,7 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I4">
         <v>700</v>
@@ -5014,7 +5338,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5037,7 +5361,7 @@
         <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I5">
         <v>750</v>
@@ -5055,7 +5379,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5096,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5137,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -5157,10 +5481,10 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I8">
         <v>1000</v>
@@ -5178,12 +5502,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5191,7 +5515,7 @@
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -5224,7 +5548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5265,7 +5589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -5306,7 +5630,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5347,7 +5671,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -5388,7 +5712,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5429,7 +5753,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5470,12 +5794,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -5501,7 +5825,7 @@
         <v>50</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -5529,7 +5853,7 @@
         <v>37182</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -5576,14 +5900,14 @@
         <v>123</v>
       </c>
       <c r="Q26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R26">
         <f>SUM(K26:P31)</f>
         <v>63732</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2</v>
       </c>
@@ -5630,14 +5954,14 @@
         <v>463</v>
       </c>
       <c r="Q27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R27" s="9">
         <f>R25/R26</f>
         <v>0.58341178685746564</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>3</v>
       </c>
@@ -5684,7 +6008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>4</v>
       </c>
@@ -5731,7 +6055,7 @@
         <v>7483</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>5</v>
       </c>
@@ -5778,7 +6102,7 @@
         <v>3952</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>6</v>
       </c>
@@ -5825,7 +6149,7 @@
         <v>5152</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>51</v>
       </c>
@@ -5930,37 +6254,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C25C78-D09B-46E7-90F9-8BA349F1D62F}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+      <c r="S23" t="s">
         <v>59</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" t="s">
-        <v>62</v>
-      </c>
-      <c r="S23" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5970,6 +6294,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD604C3B73AE9943B737720A48E3AF7C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd293e4048182cf0cbc24ca37d962123">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa" xmlns:ns4="9c83b91e-5ffe-420f-9ed1-9dac5903eaec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a7092592117d1a74ae1fb4e50ab3de0d" ns3:_="" ns4:_="">
     <xsd:import namespace="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa"/>
@@ -6192,22 +6531,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFE87820-940E-44AC-92A1-ADED4600E6B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2FE3063-2D0E-4A05-8A5B-FA8E4B6313C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA039B0B-4885-4C3F-912A-0E547E7A85E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6224,21 +6565,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2FE3063-2D0E-4A05-8A5B-FA8E4B6313C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFE87820-940E-44AC-92A1-ADED4600E6B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>